--- a/1911-EE-000-T1.xlsx
+++ b/1911-EE-000-T1.xlsx
@@ -6992,7 +6992,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7001,14 +7001,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7019,40 +7018,35 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>CLO 0</t>
+          <t>CLO 1</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>CLO 1</t>
+          <t>CLO 2</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>CLO 2</t>
+          <t>CLO 3</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>CLO 3</t>
+          <t>CLO 4</t>
         </is>
       </c>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>CLO 4</t>
+          <t>CLO 5</t>
         </is>
       </c>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>CLO 5</t>
+          <t>PLO 2</t>
         </is>
       </c>
       <c r="H1" s="3" t="inlineStr">
-        <is>
-          <t>PLO 2</t>
-        </is>
-      </c>
-      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Overall Grade</t>
         </is>
@@ -7065,27 +7059,24 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>96.31999999999999</v>
+        <v>94.66</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>94.66</v>
-      </c>
-      <c r="D2" s="4" t="n">
         <v>79.62</v>
       </c>
+      <c r="D2" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4" t="n">
+      <c r="G2" s="4" t="n">
         <v>87.14</v>
       </c>
-      <c r="I2" s="6" t="inlineStr">
+      <c r="H2" s="6" t="inlineStr">
         <is>
           <t>87.03% (A-)</t>
         </is>
@@ -7098,27 +7089,24 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>79.12</v>
+        <v>98.36</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>98.36</v>
-      </c>
-      <c r="D3" s="4" t="n">
         <v>87.01000000000001</v>
       </c>
+      <c r="D3" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E3" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4" t="n">
+      <c r="G3" s="4" t="n">
         <v>92.69</v>
       </c>
-      <c r="I3" s="6" t="inlineStr">
+      <c r="H3" s="6" t="inlineStr">
         <is>
           <t>88.38% (A-)</t>
         </is>
@@ -7131,27 +7119,24 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>105.96</v>
+        <v>98.63</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>98.63</v>
-      </c>
-      <c r="D4" s="4" t="n">
         <v>90.09</v>
       </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="n">
+      <c r="G4" s="4" t="n">
         <v>94.36</v>
       </c>
-      <c r="I4" s="6" t="inlineStr">
+      <c r="H4" s="6" t="inlineStr">
         <is>
           <t>95.61% (A+)</t>
         </is>
@@ -7164,27 +7149,24 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>85.7</v>
+        <v>84.11</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>84.11</v>
-      </c>
-      <c r="D5" s="4" t="n">
         <v>81.64</v>
       </c>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="n">
+      <c r="G5" s="4" t="n">
         <v>82.88</v>
       </c>
-      <c r="I5" s="6" t="inlineStr">
+      <c r="H5" s="6" t="inlineStr">
         <is>
           <t>83.13% (B+)</t>
         </is>
@@ -7197,27 +7179,24 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>106.75</v>
+        <v>78.36</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>78.36</v>
-      </c>
-      <c r="D6" s="4" t="n">
         <v>82.29000000000001</v>
       </c>
+      <c r="D6" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
+      <c r="G6" s="4" t="n">
         <v>80.33</v>
       </c>
-      <c r="I6" s="6" t="inlineStr">
+      <c r="H6" s="6" t="inlineStr">
         <is>
           <t>86.29% (A-)</t>
         </is>
@@ -7229,28 +7208,25 @@
           <t>3511 Syed Hasan Asim</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>95.61</v>
-      </c>
-      <c r="C7" s="5" t="n">
+      <c r="B7" s="5" t="n">
         <v>49.59</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="C7" s="4" t="n">
         <v>72.84999999999999</v>
       </c>
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E7" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7" t="n">
+      <c r="G7" s="7" t="n">
         <v>61.22</v>
       </c>
-      <c r="I7" s="6" t="inlineStr">
+      <c r="H7" s="6" t="inlineStr">
         <is>
           <t>71.40% (B-)</t>
         </is>
@@ -7263,27 +7239,24 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>109.12</v>
+        <v>98.22</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>98.22</v>
-      </c>
-      <c r="D8" s="4" t="n">
         <v>93.64</v>
       </c>
+      <c r="D8" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4" t="n">
+      <c r="G8" s="4" t="n">
         <v>95.93000000000001</v>
       </c>
-      <c r="I8" s="6" t="inlineStr">
+      <c r="H8" s="6" t="inlineStr">
         <is>
           <t>98.04% (A+)</t>
         </is>
@@ -7296,27 +7269,24 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>105.44</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="D9" s="4" t="n">
         <v>96.95999999999999</v>
       </c>
+      <c r="D9" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E9" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4" t="n">
+      <c r="G9" s="4" t="n">
         <v>97.93000000000001</v>
       </c>
-      <c r="I9" s="6" t="inlineStr">
+      <c r="H9" s="6" t="inlineStr">
         <is>
           <t>99.22% (A+)</t>
         </is>
@@ -7329,27 +7299,24 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>105.79</v>
+        <v>96.03</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>96.03</v>
-      </c>
-      <c r="D10" s="4" t="n">
         <v>92.28</v>
       </c>
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E10" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="n">
+      <c r="G10" s="4" t="n">
         <v>94.16</v>
       </c>
-      <c r="I10" s="6" t="inlineStr">
+      <c r="H10" s="6" t="inlineStr">
         <is>
           <t>96.05% (A+)</t>
         </is>
@@ -7362,27 +7329,24 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>106.05</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="D11" s="4" t="n">
         <v>91.91</v>
       </c>
+      <c r="D11" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4" t="n">
+      <c r="G11" s="4" t="n">
         <v>94.66</v>
       </c>
-      <c r="I11" s="6" t="inlineStr">
+      <c r="H11" s="6" t="inlineStr">
         <is>
           <t>96.27% (A+)</t>
         </is>
@@ -7395,27 +7359,24 @@
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>105.18</v>
+        <v>98.08</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>98.08</v>
-      </c>
-      <c r="D12" s="4" t="n">
         <v>84.41</v>
       </c>
+      <c r="D12" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4" t="n">
+      <c r="G12" s="4" t="n">
         <v>91.25</v>
       </c>
-      <c r="I12" s="6" t="inlineStr">
+      <c r="H12" s="6" t="inlineStr">
         <is>
           <t>92.30% (A)</t>
         </is>
@@ -7428,27 +7389,24 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>107.04</v>
+        <v>100</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D13" s="4" t="n">
         <v>97.23999999999999</v>
       </c>
+      <c r="D13" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E13" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4" t="n">
+      <c r="G13" s="4" t="n">
         <v>98.62</v>
       </c>
-      <c r="I13" s="6" t="inlineStr">
+      <c r="H13" s="6" t="inlineStr">
         <is>
           <t>99.99% (A+)</t>
         </is>
@@ -7461,27 +7419,24 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>104.56</v>
+        <v>93.15000000000001</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>93.15000000000001</v>
-      </c>
-      <c r="D14" s="4" t="n">
         <v>88.55</v>
       </c>
+      <c r="D14" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4" t="n">
+      <c r="G14" s="4" t="n">
         <v>90.84999999999999</v>
       </c>
-      <c r="I14" s="6" t="inlineStr">
+      <c r="H14" s="6" t="inlineStr">
         <is>
           <t>93.07% (A)</t>
         </is>
@@ -7494,27 +7449,24 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>98.95</v>
+        <v>90.41</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>90.41</v>
-      </c>
-      <c r="D15" s="4" t="n">
         <v>80.75</v>
       </c>
+      <c r="D15" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E15" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4" t="n">
+      <c r="G15" s="4" t="n">
         <v>85.58</v>
       </c>
-      <c r="I15" s="6" t="inlineStr">
+      <c r="H15" s="6" t="inlineStr">
         <is>
           <t>87.05% (A-)</t>
         </is>

--- a/1911-EE-000-T1.xlsx
+++ b/1911-EE-000-T1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="CLO PLO Results" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191028" fullCalcOnLoad="1" calcCompleted="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -592,8 +592,8 @@
   </sheetPr>
   <dimension ref="A1:AF28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -2592,7 +2592,7 @@
     <col width="15.7109375" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>ID</t>
@@ -2660,7 +2660,7 @@
         </is>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="30" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>4160 Syed Zain Abbas</t>
@@ -2690,7 +2690,7 @@
         </is>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="45" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>3571 Syed Muhammad Affan</t>
@@ -2720,7 +2720,7 @@
         </is>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="45" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>4041 Muhammad Shaheer Alam</t>
@@ -2750,7 +2750,7 @@
         </is>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="30" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>4029 Hussaina Ali Akbar</t>
@@ -2780,7 +2780,7 @@
         </is>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="30" customHeight="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>3511 Syed Hasan Asim</t>
@@ -2810,7 +2810,7 @@
         </is>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="45" customHeight="1">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>4112 Mohammad Diyyan khokhar</t>
@@ -2840,7 +2840,7 @@
         </is>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="30" customHeight="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>3974 Aoun Hussain</t>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="45" customHeight="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>3985 Muhammad Haroon Khan</t>
@@ -2900,7 +2900,7 @@
         </is>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="30" customHeight="1">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>4008 Kuldeep Dileep Lohana</t>
@@ -2930,7 +2930,7 @@
         </is>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="30" customHeight="1">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>4025 Anusha Rehman</t>
@@ -2960,7 +2960,7 @@
         </is>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="30" customHeight="1">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>3487 Hashim Abbas Rizvi</t>
@@ -2990,7 +2990,7 @@
         </is>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="30" customHeight="1">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>3508 Abdul Shakoor</t>
@@ -3020,7 +3020,7 @@
         </is>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="45" customHeight="1">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>3560 Mohammad Abrar Sohail</t>
@@ -3071,7 +3071,7 @@
   </sheetPr>
   <dimension ref="A1:CA18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3103,7 +3103,7 @@
     <col width="9.5703125" customWidth="1" min="77" max="77"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="45" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Modules</t>
@@ -4069,7 +4069,7 @@
         <v>85.59999999999999</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="30" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>3571 Syed Muhammad Affan</t>
@@ -4277,7 +4277,7 @@
         <v>101.7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="30" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>4041 Muhammad Shaheer Alam</t>
@@ -4901,7 +4901,7 @@
         <v>96.40000000000001</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="30" customHeight="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>4112 Mohammad Diyyan khokhar</t>
@@ -5317,7 +5317,7 @@
         <v>107.1</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="30" customHeight="1">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>3985 Muhammad Haroon Khan</t>
@@ -5525,7 +5525,7 @@
         <v>99.90000000000001</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="30" customHeight="1">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>4008 Kuldeep Dileep Lohana</t>
@@ -6357,7 +6357,7 @@
         <v>110.7</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="30" customHeight="1">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>3560 Mohammad Abrar Sohail</t>
@@ -6992,7 +6992,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7007,7 +7007,8 @@
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7048,6 +7049,11 @@
       </c>
       <c r="H1" s="3" t="inlineStr">
         <is>
+          <t>PLO 3</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
           <t>Overall Grade</t>
         </is>
       </c>
@@ -7076,7 +7082,10 @@
       <c r="G2" s="4" t="n">
         <v>87.14</v>
       </c>
-      <c r="H2" s="6" t="inlineStr">
+      <c r="H2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6" t="inlineStr">
         <is>
           <t>87.03% (A-)</t>
         </is>
@@ -7106,7 +7115,10 @@
       <c r="G3" s="4" t="n">
         <v>92.69</v>
       </c>
-      <c r="H3" s="6" t="inlineStr">
+      <c r="H3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="inlineStr">
         <is>
           <t>88.38% (A-)</t>
         </is>
@@ -7136,7 +7148,10 @@
       <c r="G4" s="4" t="n">
         <v>94.36</v>
       </c>
-      <c r="H4" s="6" t="inlineStr">
+      <c r="H4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
         <is>
           <t>95.61% (A+)</t>
         </is>
@@ -7166,7 +7181,10 @@
       <c r="G5" s="4" t="n">
         <v>82.88</v>
       </c>
-      <c r="H5" s="6" t="inlineStr">
+      <c r="H5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6" t="inlineStr">
         <is>
           <t>83.13% (B+)</t>
         </is>
@@ -7196,7 +7214,10 @@
       <c r="G6" s="4" t="n">
         <v>80.33</v>
       </c>
-      <c r="H6" s="6" t="inlineStr">
+      <c r="H6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6" t="inlineStr">
         <is>
           <t>86.29% (A-)</t>
         </is>
@@ -7226,7 +7247,10 @@
       <c r="G7" s="7" t="n">
         <v>61.22</v>
       </c>
-      <c r="H7" s="6" t="inlineStr">
+      <c r="H7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6" t="inlineStr">
         <is>
           <t>71.40% (B-)</t>
         </is>
@@ -7256,7 +7280,10 @@
       <c r="G8" s="4" t="n">
         <v>95.93000000000001</v>
       </c>
-      <c r="H8" s="6" t="inlineStr">
+      <c r="H8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6" t="inlineStr">
         <is>
           <t>98.04% (A+)</t>
         </is>
@@ -7286,7 +7313,10 @@
       <c r="G9" s="4" t="n">
         <v>97.93000000000001</v>
       </c>
-      <c r="H9" s="6" t="inlineStr">
+      <c r="H9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6" t="inlineStr">
         <is>
           <t>99.22% (A+)</t>
         </is>
@@ -7316,7 +7346,10 @@
       <c r="G10" s="4" t="n">
         <v>94.16</v>
       </c>
-      <c r="H10" s="6" t="inlineStr">
+      <c r="H10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
         <is>
           <t>96.05% (A+)</t>
         </is>
@@ -7346,7 +7379,10 @@
       <c r="G11" s="4" t="n">
         <v>94.66</v>
       </c>
-      <c r="H11" s="6" t="inlineStr">
+      <c r="H11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6" t="inlineStr">
         <is>
           <t>96.27% (A+)</t>
         </is>
@@ -7376,7 +7412,10 @@
       <c r="G12" s="4" t="n">
         <v>91.25</v>
       </c>
-      <c r="H12" s="6" t="inlineStr">
+      <c r="H12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6" t="inlineStr">
         <is>
           <t>92.30% (A)</t>
         </is>
@@ -7406,7 +7445,10 @@
       <c r="G13" s="4" t="n">
         <v>98.62</v>
       </c>
-      <c r="H13" s="6" t="inlineStr">
+      <c r="H13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6" t="inlineStr">
         <is>
           <t>99.99% (A+)</t>
         </is>
@@ -7436,7 +7478,10 @@
       <c r="G14" s="4" t="n">
         <v>90.84999999999999</v>
       </c>
-      <c r="H14" s="6" t="inlineStr">
+      <c r="H14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6" t="inlineStr">
         <is>
           <t>93.07% (A)</t>
         </is>
@@ -7466,7 +7511,10 @@
       <c r="G15" s="4" t="n">
         <v>85.58</v>
       </c>
-      <c r="H15" s="6" t="inlineStr">
+      <c r="H15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6" t="inlineStr">
         <is>
           <t>87.05% (A-)</t>
         </is>
